--- a/data/processed/Pesos_NuevoHorizonte/__bbdd_revision__variacion_pesos_nuevo_horizonte.xlsx
+++ b/data/processed/Pesos_NuevoHorizonte/__bbdd_revision__variacion_pesos_nuevo_horizonte.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cesar_quezada\ProyectosIA\Proyectos_PALMAS\PROYECTO_01_analitica_descriptiva_TEA\data\processed\Pesos_NuevoHorizonte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E5A6D4-602F-40AF-B3B4-1681ABC9044C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465CAE84-335F-4419-B02D-E83581D31641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,6 +95,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -508,9 +509,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S50" sqref="S50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2303,7 +2304,7 @@
         <v>7.8940418541191234E-4</v>
       </c>
       <c r="D45" s="10">
-        <f t="shared" ref="C45:M45" si="6">+(-1)*(D43*D42)/100</f>
+        <f t="shared" ref="D45:M45" si="6">+(-1)*(D43*D42)/100</f>
         <v>-2.175482412173034E-5</v>
       </c>
       <c r="E45" s="10">
@@ -2395,5 +2396,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>